--- a/src/main/python/crm_data.xlsx
+++ b/src/main/python/crm_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="216">
   <si>
     <t>userID</t>
   </si>
@@ -44,7 +44,13 @@
     <t>bgImg</t>
   </si>
   <si>
-    <t xml:space="preserve">Nông Hải </t>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Nông Hải</t>
   </si>
   <si>
     <t>Dương</t>
@@ -65,7 +71,13 @@
     <t>plugins/images/large/1.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Lê Việt </t>
+    <t>0275507218</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Lê Việt</t>
   </si>
   <si>
     <t>Khải</t>
@@ -86,7 +98,10 @@
     <t>plugins/images/large/2.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Mẫn Hoàng </t>
+    <t>0343122929</t>
+  </si>
+  <si>
+    <t>Mẫn Hoàng</t>
   </si>
   <si>
     <t>Khôi</t>
@@ -107,7 +122,10 @@
     <t>plugins/images/large/3.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Trần Xuân </t>
+    <t>0572379478</t>
+  </si>
+  <si>
+    <t>Trần Xuân</t>
   </si>
   <si>
     <t>Thiện</t>
@@ -128,7 +146,10 @@
     <t>plugins/images/large/4.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Vũ Hữu </t>
+    <t>015767682</t>
+  </si>
+  <si>
+    <t>Vũ Hữu</t>
   </si>
   <si>
     <t>Chiến</t>
@@ -149,7 +170,10 @@
     <t>plugins/images/large/5.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Phan Thành </t>
+    <t>0199492379</t>
+  </si>
+  <si>
+    <t>Phan Thành</t>
   </si>
   <si>
     <t>Nguyên</t>
@@ -170,7 +194,10 @@
     <t>plugins/images/large/6.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Nguyễn Ðình </t>
+    <t>0602004437</t>
+  </si>
+  <si>
+    <t>Nguyễn Ðình</t>
   </si>
   <si>
     <t>ndd</t>
@@ -188,6 +215,9 @@
     <t>plugins/images/large/7.jpg</t>
   </si>
   <si>
+    <t>0737453993</t>
+  </si>
+  <si>
     <t>Lê Diệu</t>
   </si>
   <si>
@@ -209,6 +239,9 @@
     <t>plugins/images/large/8.jpg</t>
   </si>
   <si>
+    <t>019863805</t>
+  </si>
+  <si>
     <t>Nguyễn Mai</t>
   </si>
   <si>
@@ -230,7 +263,10 @@
     <t>plugins/images/large/9.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">Lyly Tuyết </t>
+    <t>0657259016</t>
+  </si>
+  <si>
+    <t>Lyly Tuyết</t>
   </si>
   <si>
     <t>Hoa</t>
@@ -251,7 +287,10 @@
     <t>plugins/images/large/10.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Ông Quỳnh </t>
+    <t>0982244494</t>
+  </si>
+  <si>
+    <t>Ông Quỳnh</t>
   </si>
   <si>
     <t>oqh</t>
@@ -269,6 +308,9 @@
     <t>plugins/images/large/11.jpg</t>
   </si>
   <si>
+    <t>0327734575</t>
+  </si>
+  <si>
     <t>Trần Khánh</t>
   </si>
   <si>
@@ -287,10 +329,13 @@
     <t>plugins/images/large/12.jpg</t>
   </si>
   <si>
+    <t>0671668895</t>
+  </si>
+  <si>
     <t>Moore</t>
   </si>
   <si>
-    <t xml:space="preserve">Joel </t>
+    <t>Joel</t>
   </si>
   <si>
     <t>joeyjoey</t>
@@ -308,10 +353,16 @@
     <t>plugins/images/large/13.png</t>
   </si>
   <si>
+    <t>0183579336</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
     <t>Matthews</t>
   </si>
   <si>
-    <t xml:space="preserve">Ewan </t>
+    <t>Ewan</t>
   </si>
   <si>
     <t>ewanmatt</t>
@@ -329,10 +380,16 @@
     <t>plugins/images/large/14.jpg</t>
   </si>
   <si>
+    <t>0476952995</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
     <t>Srisati</t>
   </si>
   <si>
-    <t xml:space="preserve">Preeya </t>
+    <t>Preeya</t>
   </si>
   <si>
     <t>preesri</t>
@@ -350,6 +407,12 @@
     <t>plugins/images/large/15.jpg</t>
   </si>
   <si>
+    <t>0378686948</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
     <t>Griffin</t>
   </si>
   <si>
@@ -371,6 +434,9 @@
     <t>plugins/images/large/16.jpg</t>
   </si>
   <si>
+    <t>0484125617</t>
+  </si>
+  <si>
     <t>Wilson</t>
   </si>
   <si>
@@ -392,10 +458,16 @@
     <t>plugins/images/large/17.jpg</t>
   </si>
   <si>
+    <t>0974273476</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
     <t>Sadakuno</t>
   </si>
   <si>
-    <t xml:space="preserve">Mitsui </t>
+    <t>Mitsui</t>
   </si>
   <si>
     <t>mitsuisan</t>
@@ -413,10 +485,16 @@
     <t>plugins/images/large/18.jpg</t>
   </si>
   <si>
+    <t>0555770877</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
     <t>Jie</t>
   </si>
   <si>
-    <t xml:space="preserve">Yang </t>
+    <t>Yang</t>
   </si>
   <si>
     <t>yangjie</t>
@@ -434,10 +512,16 @@
     <t>plugins/images/large/19.jpg</t>
   </si>
   <si>
+    <t>080333385</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
     <t>Jung-Ho</t>
   </si>
   <si>
-    <t xml:space="preserve">Eoh </t>
+    <t>Eoh</t>
   </si>
   <si>
     <t>junghoeoh</t>
@@ -453,6 +537,12 @@
   </si>
   <si>
     <t>plugins/images/large/20.jpg</t>
+  </si>
+  <si>
+    <t>0708808893</t>
+  </si>
+  <si>
+    <t>Korea</t>
   </si>
   <si>
     <t>.</t>
@@ -583,7 +673,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -604,6 +694,10 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Monospace"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -642,11 +736,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -656,10 +753,14 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -909,6 +1010,7 @@
     <col customWidth="1" min="5" max="5" width="18.13"/>
     <col customWidth="1" min="7" max="7" width="14.63"/>
     <col customWidth="1" min="8" max="9" width="22.25"/>
+    <col customWidth="1" min="10" max="10" width="27.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -939,591 +1041,3672 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2">
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3">
         <v>1.0</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2">
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3">
         <v>3.0</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3">
         <v>3.0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="G5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="3">
         <v>4.0</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
+      <c r="G8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="G10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="3">
         <v>3.0</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="G11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3">
         <v>2.0</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="G13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="3">
         <v>3.0</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="G14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="3">
         <v>4.0</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="G16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="3">
         <v>3.0</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="G17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="3">
         <v>4.0</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="G21" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" s="7"/>
     </row>
     <row r="22">
-      <c r="H22" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="H22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25">
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28">
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30">
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31">
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32">
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33">
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34">
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35">
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36">
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37">
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38">
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39">
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40">
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41">
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42">
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43">
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44">
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45">
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47">
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48">
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49">
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50">
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51">
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52">
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53">
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54">
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55">
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56">
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57">
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58">
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59">
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60">
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61">
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62">
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63">
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64">
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65">
+      <c r="J65" s="6"/>
+    </row>
+    <row r="66">
+      <c r="J66" s="6"/>
+    </row>
+    <row r="67">
+      <c r="J67" s="6"/>
+    </row>
+    <row r="68">
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69">
+      <c r="J69" s="6"/>
+    </row>
+    <row r="70">
+      <c r="J70" s="6"/>
+    </row>
+    <row r="71">
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72">
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73">
+      <c r="J73" s="6"/>
+    </row>
+    <row r="74">
+      <c r="J74" s="6"/>
+    </row>
+    <row r="75">
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76">
+      <c r="J76" s="6"/>
+    </row>
+    <row r="77">
+      <c r="J77" s="6"/>
+    </row>
+    <row r="78">
+      <c r="J78" s="6"/>
+    </row>
+    <row r="79">
+      <c r="J79" s="6"/>
+    </row>
+    <row r="80">
+      <c r="J80" s="6"/>
+    </row>
+    <row r="81">
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82">
+      <c r="J82" s="6"/>
+    </row>
+    <row r="83">
+      <c r="J83" s="6"/>
+    </row>
+    <row r="84">
+      <c r="J84" s="6"/>
+    </row>
+    <row r="85">
+      <c r="J85" s="6"/>
+    </row>
+    <row r="86">
+      <c r="J86" s="6"/>
+    </row>
+    <row r="87">
+      <c r="J87" s="6"/>
+    </row>
+    <row r="88">
+      <c r="J88" s="6"/>
+    </row>
+    <row r="89">
+      <c r="J89" s="6"/>
+    </row>
+    <row r="90">
+      <c r="J90" s="6"/>
+    </row>
+    <row r="91">
+      <c r="J91" s="6"/>
+    </row>
+    <row r="92">
+      <c r="J92" s="6"/>
+    </row>
+    <row r="93">
+      <c r="J93" s="6"/>
+    </row>
+    <row r="94">
+      <c r="J94" s="6"/>
+    </row>
+    <row r="95">
+      <c r="J95" s="6"/>
+    </row>
+    <row r="96">
+      <c r="J96" s="6"/>
+    </row>
+    <row r="97">
+      <c r="J97" s="6"/>
+    </row>
+    <row r="98">
+      <c r="J98" s="6"/>
+    </row>
+    <row r="99">
+      <c r="J99" s="6"/>
+    </row>
+    <row r="100">
+      <c r="J100" s="6"/>
+    </row>
+    <row r="101">
+      <c r="J101" s="6"/>
+    </row>
+    <row r="102">
+      <c r="J102" s="6"/>
+    </row>
+    <row r="103">
+      <c r="J103" s="6"/>
+    </row>
+    <row r="104">
+      <c r="J104" s="6"/>
+    </row>
+    <row r="105">
+      <c r="J105" s="6"/>
+    </row>
+    <row r="106">
+      <c r="J106" s="6"/>
+    </row>
+    <row r="107">
+      <c r="J107" s="6"/>
+    </row>
+    <row r="108">
+      <c r="J108" s="6"/>
+    </row>
+    <row r="109">
+      <c r="J109" s="6"/>
+    </row>
+    <row r="110">
+      <c r="J110" s="6"/>
+    </row>
+    <row r="111">
+      <c r="J111" s="6"/>
+    </row>
+    <row r="112">
+      <c r="J112" s="6"/>
+    </row>
+    <row r="113">
+      <c r="J113" s="6"/>
+    </row>
+    <row r="114">
+      <c r="J114" s="6"/>
+    </row>
+    <row r="115">
+      <c r="J115" s="6"/>
+    </row>
+    <row r="116">
+      <c r="J116" s="6"/>
+    </row>
+    <row r="117">
+      <c r="J117" s="6"/>
+    </row>
+    <row r="118">
+      <c r="J118" s="6"/>
+    </row>
+    <row r="119">
+      <c r="J119" s="6"/>
+    </row>
+    <row r="120">
+      <c r="J120" s="6"/>
+    </row>
+    <row r="121">
+      <c r="J121" s="6"/>
+    </row>
+    <row r="122">
+      <c r="J122" s="6"/>
+    </row>
+    <row r="123">
+      <c r="J123" s="6"/>
+    </row>
+    <row r="124">
+      <c r="J124" s="6"/>
+    </row>
+    <row r="125">
+      <c r="J125" s="6"/>
+    </row>
+    <row r="126">
+      <c r="J126" s="6"/>
+    </row>
+    <row r="127">
+      <c r="J127" s="6"/>
+    </row>
+    <row r="128">
+      <c r="J128" s="6"/>
+    </row>
+    <row r="129">
+      <c r="J129" s="6"/>
+    </row>
+    <row r="130">
+      <c r="J130" s="6"/>
+    </row>
+    <row r="131">
+      <c r="J131" s="6"/>
+    </row>
+    <row r="132">
+      <c r="J132" s="6"/>
+    </row>
+    <row r="133">
+      <c r="J133" s="6"/>
+    </row>
+    <row r="134">
+      <c r="J134" s="6"/>
+    </row>
+    <row r="135">
+      <c r="J135" s="6"/>
+    </row>
+    <row r="136">
+      <c r="J136" s="6"/>
+    </row>
+    <row r="137">
+      <c r="J137" s="6"/>
+    </row>
+    <row r="138">
+      <c r="J138" s="6"/>
+    </row>
+    <row r="139">
+      <c r="J139" s="6"/>
+    </row>
+    <row r="140">
+      <c r="J140" s="6"/>
+    </row>
+    <row r="141">
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142">
+      <c r="J142" s="6"/>
+    </row>
+    <row r="143">
+      <c r="J143" s="6"/>
+    </row>
+    <row r="144">
+      <c r="J144" s="6"/>
+    </row>
+    <row r="145">
+      <c r="J145" s="6"/>
+    </row>
+    <row r="146">
+      <c r="J146" s="6"/>
+    </row>
+    <row r="147">
+      <c r="J147" s="6"/>
+    </row>
+    <row r="148">
+      <c r="J148" s="6"/>
+    </row>
+    <row r="149">
+      <c r="J149" s="6"/>
+    </row>
+    <row r="150">
+      <c r="J150" s="6"/>
+    </row>
+    <row r="151">
+      <c r="J151" s="6"/>
+    </row>
+    <row r="152">
+      <c r="J152" s="6"/>
+    </row>
+    <row r="153">
+      <c r="J153" s="6"/>
+    </row>
+    <row r="154">
+      <c r="J154" s="6"/>
+    </row>
+    <row r="155">
+      <c r="J155" s="6"/>
+    </row>
+    <row r="156">
+      <c r="J156" s="6"/>
+    </row>
+    <row r="157">
+      <c r="J157" s="6"/>
+    </row>
+    <row r="158">
+      <c r="J158" s="6"/>
+    </row>
+    <row r="159">
+      <c r="J159" s="6"/>
+    </row>
+    <row r="160">
+      <c r="J160" s="6"/>
+    </row>
+    <row r="161">
+      <c r="J161" s="6"/>
+    </row>
+    <row r="162">
+      <c r="J162" s="6"/>
+    </row>
+    <row r="163">
+      <c r="J163" s="6"/>
+    </row>
+    <row r="164">
+      <c r="J164" s="6"/>
+    </row>
+    <row r="165">
+      <c r="J165" s="6"/>
+    </row>
+    <row r="166">
+      <c r="J166" s="6"/>
+    </row>
+    <row r="167">
+      <c r="J167" s="6"/>
+    </row>
+    <row r="168">
+      <c r="J168" s="6"/>
+    </row>
+    <row r="169">
+      <c r="J169" s="6"/>
+    </row>
+    <row r="170">
+      <c r="J170" s="6"/>
+    </row>
+    <row r="171">
+      <c r="J171" s="6"/>
+    </row>
+    <row r="172">
+      <c r="J172" s="6"/>
+    </row>
+    <row r="173">
+      <c r="J173" s="6"/>
+    </row>
+    <row r="174">
+      <c r="J174" s="6"/>
+    </row>
+    <row r="175">
+      <c r="J175" s="6"/>
+    </row>
+    <row r="176">
+      <c r="J176" s="6"/>
+    </row>
+    <row r="177">
+      <c r="J177" s="6"/>
+    </row>
+    <row r="178">
+      <c r="J178" s="6"/>
+    </row>
+    <row r="179">
+      <c r="J179" s="6"/>
+    </row>
+    <row r="180">
+      <c r="J180" s="6"/>
+    </row>
+    <row r="181">
+      <c r="J181" s="6"/>
+    </row>
+    <row r="182">
+      <c r="J182" s="6"/>
+    </row>
+    <row r="183">
+      <c r="J183" s="6"/>
+    </row>
+    <row r="184">
+      <c r="J184" s="6"/>
+    </row>
+    <row r="185">
+      <c r="J185" s="6"/>
+    </row>
+    <row r="186">
+      <c r="J186" s="6"/>
+    </row>
+    <row r="187">
+      <c r="J187" s="6"/>
+    </row>
+    <row r="188">
+      <c r="J188" s="6"/>
+    </row>
+    <row r="189">
+      <c r="J189" s="6"/>
+    </row>
+    <row r="190">
+      <c r="J190" s="6"/>
+    </row>
+    <row r="191">
+      <c r="J191" s="6"/>
+    </row>
+    <row r="192">
+      <c r="J192" s="6"/>
+    </row>
+    <row r="193">
+      <c r="J193" s="6"/>
+    </row>
+    <row r="194">
+      <c r="J194" s="6"/>
+    </row>
+    <row r="195">
+      <c r="J195" s="6"/>
+    </row>
+    <row r="196">
+      <c r="J196" s="6"/>
+    </row>
+    <row r="197">
+      <c r="J197" s="6"/>
+    </row>
+    <row r="198">
+      <c r="J198" s="6"/>
+    </row>
+    <row r="199">
+      <c r="J199" s="6"/>
+    </row>
+    <row r="200">
+      <c r="J200" s="6"/>
+    </row>
+    <row r="201">
+      <c r="J201" s="6"/>
+    </row>
+    <row r="202">
+      <c r="J202" s="6"/>
+    </row>
+    <row r="203">
+      <c r="J203" s="6"/>
+    </row>
+    <row r="204">
+      <c r="J204" s="6"/>
+    </row>
+    <row r="205">
+      <c r="J205" s="6"/>
+    </row>
+    <row r="206">
+      <c r="J206" s="6"/>
+    </row>
+    <row r="207">
+      <c r="J207" s="6"/>
+    </row>
+    <row r="208">
+      <c r="J208" s="6"/>
+    </row>
+    <row r="209">
+      <c r="J209" s="6"/>
+    </row>
+    <row r="210">
+      <c r="J210" s="6"/>
+    </row>
+    <row r="211">
+      <c r="J211" s="6"/>
+    </row>
+    <row r="212">
+      <c r="J212" s="6"/>
+    </row>
+    <row r="213">
+      <c r="J213" s="6"/>
+    </row>
+    <row r="214">
+      <c r="J214" s="6"/>
+    </row>
+    <row r="215">
+      <c r="J215" s="6"/>
+    </row>
+    <row r="216">
+      <c r="J216" s="6"/>
+    </row>
+    <row r="217">
+      <c r="J217" s="6"/>
+    </row>
+    <row r="218">
+      <c r="J218" s="6"/>
+    </row>
+    <row r="219">
+      <c r="J219" s="6"/>
+    </row>
+    <row r="220">
+      <c r="J220" s="6"/>
+    </row>
+    <row r="221">
+      <c r="J221" s="6"/>
+    </row>
+    <row r="222">
+      <c r="J222" s="6"/>
+    </row>
+    <row r="223">
+      <c r="J223" s="6"/>
+    </row>
+    <row r="224">
+      <c r="J224" s="6"/>
+    </row>
+    <row r="225">
+      <c r="J225" s="6"/>
+    </row>
+    <row r="226">
+      <c r="J226" s="6"/>
+    </row>
+    <row r="227">
+      <c r="J227" s="6"/>
+    </row>
+    <row r="228">
+      <c r="J228" s="6"/>
+    </row>
+    <row r="229">
+      <c r="J229" s="6"/>
+    </row>
+    <row r="230">
+      <c r="J230" s="6"/>
+    </row>
+    <row r="231">
+      <c r="J231" s="6"/>
+    </row>
+    <row r="232">
+      <c r="J232" s="6"/>
+    </row>
+    <row r="233">
+      <c r="J233" s="6"/>
+    </row>
+    <row r="234">
+      <c r="J234" s="6"/>
+    </row>
+    <row r="235">
+      <c r="J235" s="6"/>
+    </row>
+    <row r="236">
+      <c r="J236" s="6"/>
+    </row>
+    <row r="237">
+      <c r="J237" s="6"/>
+    </row>
+    <row r="238">
+      <c r="J238" s="6"/>
+    </row>
+    <row r="239">
+      <c r="J239" s="6"/>
+    </row>
+    <row r="240">
+      <c r="J240" s="6"/>
+    </row>
+    <row r="241">
+      <c r="J241" s="6"/>
+    </row>
+    <row r="242">
+      <c r="J242" s="6"/>
+    </row>
+    <row r="243">
+      <c r="J243" s="6"/>
+    </row>
+    <row r="244">
+      <c r="J244" s="6"/>
+    </row>
+    <row r="245">
+      <c r="J245" s="6"/>
+    </row>
+    <row r="246">
+      <c r="J246" s="6"/>
+    </row>
+    <row r="247">
+      <c r="J247" s="6"/>
+    </row>
+    <row r="248">
+      <c r="J248" s="6"/>
+    </row>
+    <row r="249">
+      <c r="J249" s="6"/>
+    </row>
+    <row r="250">
+      <c r="J250" s="6"/>
+    </row>
+    <row r="251">
+      <c r="J251" s="6"/>
+    </row>
+    <row r="252">
+      <c r="J252" s="6"/>
+    </row>
+    <row r="253">
+      <c r="J253" s="6"/>
+    </row>
+    <row r="254">
+      <c r="J254" s="6"/>
+    </row>
+    <row r="255">
+      <c r="J255" s="6"/>
+    </row>
+    <row r="256">
+      <c r="J256" s="6"/>
+    </row>
+    <row r="257">
+      <c r="J257" s="6"/>
+    </row>
+    <row r="258">
+      <c r="J258" s="6"/>
+    </row>
+    <row r="259">
+      <c r="J259" s="6"/>
+    </row>
+    <row r="260">
+      <c r="J260" s="6"/>
+    </row>
+    <row r="261">
+      <c r="J261" s="6"/>
+    </row>
+    <row r="262">
+      <c r="J262" s="6"/>
+    </row>
+    <row r="263">
+      <c r="J263" s="6"/>
+    </row>
+    <row r="264">
+      <c r="J264" s="6"/>
+    </row>
+    <row r="265">
+      <c r="J265" s="6"/>
+    </row>
+    <row r="266">
+      <c r="J266" s="6"/>
+    </row>
+    <row r="267">
+      <c r="J267" s="6"/>
+    </row>
+    <row r="268">
+      <c r="J268" s="6"/>
+    </row>
+    <row r="269">
+      <c r="J269" s="6"/>
+    </row>
+    <row r="270">
+      <c r="J270" s="6"/>
+    </row>
+    <row r="271">
+      <c r="J271" s="6"/>
+    </row>
+    <row r="272">
+      <c r="J272" s="6"/>
+    </row>
+    <row r="273">
+      <c r="J273" s="6"/>
+    </row>
+    <row r="274">
+      <c r="J274" s="6"/>
+    </row>
+    <row r="275">
+      <c r="J275" s="6"/>
+    </row>
+    <row r="276">
+      <c r="J276" s="6"/>
+    </row>
+    <row r="277">
+      <c r="J277" s="6"/>
+    </row>
+    <row r="278">
+      <c r="J278" s="6"/>
+    </row>
+    <row r="279">
+      <c r="J279" s="6"/>
+    </row>
+    <row r="280">
+      <c r="J280" s="6"/>
+    </row>
+    <row r="281">
+      <c r="J281" s="6"/>
+    </row>
+    <row r="282">
+      <c r="J282" s="6"/>
+    </row>
+    <row r="283">
+      <c r="J283" s="6"/>
+    </row>
+    <row r="284">
+      <c r="J284" s="6"/>
+    </row>
+    <row r="285">
+      <c r="J285" s="6"/>
+    </row>
+    <row r="286">
+      <c r="J286" s="6"/>
+    </row>
+    <row r="287">
+      <c r="J287" s="6"/>
+    </row>
+    <row r="288">
+      <c r="J288" s="6"/>
+    </row>
+    <row r="289">
+      <c r="J289" s="6"/>
+    </row>
+    <row r="290">
+      <c r="J290" s="6"/>
+    </row>
+    <row r="291">
+      <c r="J291" s="6"/>
+    </row>
+    <row r="292">
+      <c r="J292" s="6"/>
+    </row>
+    <row r="293">
+      <c r="J293" s="6"/>
+    </row>
+    <row r="294">
+      <c r="J294" s="6"/>
+    </row>
+    <row r="295">
+      <c r="J295" s="6"/>
+    </row>
+    <row r="296">
+      <c r="J296" s="6"/>
+    </row>
+    <row r="297">
+      <c r="J297" s="6"/>
+    </row>
+    <row r="298">
+      <c r="J298" s="6"/>
+    </row>
+    <row r="299">
+      <c r="J299" s="6"/>
+    </row>
+    <row r="300">
+      <c r="J300" s="6"/>
+    </row>
+    <row r="301">
+      <c r="J301" s="6"/>
+    </row>
+    <row r="302">
+      <c r="J302" s="6"/>
+    </row>
+    <row r="303">
+      <c r="J303" s="6"/>
+    </row>
+    <row r="304">
+      <c r="J304" s="6"/>
+    </row>
+    <row r="305">
+      <c r="J305" s="6"/>
+    </row>
+    <row r="306">
+      <c r="J306" s="6"/>
+    </row>
+    <row r="307">
+      <c r="J307" s="6"/>
+    </row>
+    <row r="308">
+      <c r="J308" s="6"/>
+    </row>
+    <row r="309">
+      <c r="J309" s="6"/>
+    </row>
+    <row r="310">
+      <c r="J310" s="6"/>
+    </row>
+    <row r="311">
+      <c r="J311" s="6"/>
+    </row>
+    <row r="312">
+      <c r="J312" s="6"/>
+    </row>
+    <row r="313">
+      <c r="J313" s="6"/>
+    </row>
+    <row r="314">
+      <c r="J314" s="6"/>
+    </row>
+    <row r="315">
+      <c r="J315" s="6"/>
+    </row>
+    <row r="316">
+      <c r="J316" s="6"/>
+    </row>
+    <row r="317">
+      <c r="J317" s="6"/>
+    </row>
+    <row r="318">
+      <c r="J318" s="6"/>
+    </row>
+    <row r="319">
+      <c r="J319" s="6"/>
+    </row>
+    <row r="320">
+      <c r="J320" s="6"/>
+    </row>
+    <row r="321">
+      <c r="J321" s="6"/>
+    </row>
+    <row r="322">
+      <c r="J322" s="6"/>
+    </row>
+    <row r="323">
+      <c r="J323" s="6"/>
+    </row>
+    <row r="324">
+      <c r="J324" s="6"/>
+    </row>
+    <row r="325">
+      <c r="J325" s="6"/>
+    </row>
+    <row r="326">
+      <c r="J326" s="6"/>
+    </row>
+    <row r="327">
+      <c r="J327" s="6"/>
+    </row>
+    <row r="328">
+      <c r="J328" s="6"/>
+    </row>
+    <row r="329">
+      <c r="J329" s="6"/>
+    </row>
+    <row r="330">
+      <c r="J330" s="6"/>
+    </row>
+    <row r="331">
+      <c r="J331" s="6"/>
+    </row>
+    <row r="332">
+      <c r="J332" s="6"/>
+    </row>
+    <row r="333">
+      <c r="J333" s="6"/>
+    </row>
+    <row r="334">
+      <c r="J334" s="6"/>
+    </row>
+    <row r="335">
+      <c r="J335" s="6"/>
+    </row>
+    <row r="336">
+      <c r="J336" s="6"/>
+    </row>
+    <row r="337">
+      <c r="J337" s="6"/>
+    </row>
+    <row r="338">
+      <c r="J338" s="6"/>
+    </row>
+    <row r="339">
+      <c r="J339" s="6"/>
+    </row>
+    <row r="340">
+      <c r="J340" s="6"/>
+    </row>
+    <row r="341">
+      <c r="J341" s="6"/>
+    </row>
+    <row r="342">
+      <c r="J342" s="6"/>
+    </row>
+    <row r="343">
+      <c r="J343" s="6"/>
+    </row>
+    <row r="344">
+      <c r="J344" s="6"/>
+    </row>
+    <row r="345">
+      <c r="J345" s="6"/>
+    </row>
+    <row r="346">
+      <c r="J346" s="6"/>
+    </row>
+    <row r="347">
+      <c r="J347" s="6"/>
+    </row>
+    <row r="348">
+      <c r="J348" s="6"/>
+    </row>
+    <row r="349">
+      <c r="J349" s="6"/>
+    </row>
+    <row r="350">
+      <c r="J350" s="6"/>
+    </row>
+    <row r="351">
+      <c r="J351" s="6"/>
+    </row>
+    <row r="352">
+      <c r="J352" s="6"/>
+    </row>
+    <row r="353">
+      <c r="J353" s="6"/>
+    </row>
+    <row r="354">
+      <c r="J354" s="6"/>
+    </row>
+    <row r="355">
+      <c r="J355" s="6"/>
+    </row>
+    <row r="356">
+      <c r="J356" s="6"/>
+    </row>
+    <row r="357">
+      <c r="J357" s="6"/>
+    </row>
+    <row r="358">
+      <c r="J358" s="6"/>
+    </row>
+    <row r="359">
+      <c r="J359" s="6"/>
+    </row>
+    <row r="360">
+      <c r="J360" s="6"/>
+    </row>
+    <row r="361">
+      <c r="J361" s="6"/>
+    </row>
+    <row r="362">
+      <c r="J362" s="6"/>
+    </row>
+    <row r="363">
+      <c r="J363" s="6"/>
+    </row>
+    <row r="364">
+      <c r="J364" s="6"/>
+    </row>
+    <row r="365">
+      <c r="J365" s="6"/>
+    </row>
+    <row r="366">
+      <c r="J366" s="6"/>
+    </row>
+    <row r="367">
+      <c r="J367" s="6"/>
+    </row>
+    <row r="368">
+      <c r="J368" s="6"/>
+    </row>
+    <row r="369">
+      <c r="J369" s="6"/>
+    </row>
+    <row r="370">
+      <c r="J370" s="6"/>
+    </row>
+    <row r="371">
+      <c r="J371" s="6"/>
+    </row>
+    <row r="372">
+      <c r="J372" s="6"/>
+    </row>
+    <row r="373">
+      <c r="J373" s="6"/>
+    </row>
+    <row r="374">
+      <c r="J374" s="6"/>
+    </row>
+    <row r="375">
+      <c r="J375" s="6"/>
+    </row>
+    <row r="376">
+      <c r="J376" s="6"/>
+    </row>
+    <row r="377">
+      <c r="J377" s="6"/>
+    </row>
+    <row r="378">
+      <c r="J378" s="6"/>
+    </row>
+    <row r="379">
+      <c r="J379" s="6"/>
+    </row>
+    <row r="380">
+      <c r="J380" s="6"/>
+    </row>
+    <row r="381">
+      <c r="J381" s="6"/>
+    </row>
+    <row r="382">
+      <c r="J382" s="6"/>
+    </row>
+    <row r="383">
+      <c r="J383" s="6"/>
+    </row>
+    <row r="384">
+      <c r="J384" s="6"/>
+    </row>
+    <row r="385">
+      <c r="J385" s="6"/>
+    </row>
+    <row r="386">
+      <c r="J386" s="6"/>
+    </row>
+    <row r="387">
+      <c r="J387" s="6"/>
+    </row>
+    <row r="388">
+      <c r="J388" s="6"/>
+    </row>
+    <row r="389">
+      <c r="J389" s="6"/>
+    </row>
+    <row r="390">
+      <c r="J390" s="6"/>
+    </row>
+    <row r="391">
+      <c r="J391" s="6"/>
+    </row>
+    <row r="392">
+      <c r="J392" s="6"/>
+    </row>
+    <row r="393">
+      <c r="J393" s="6"/>
+    </row>
+    <row r="394">
+      <c r="J394" s="6"/>
+    </row>
+    <row r="395">
+      <c r="J395" s="6"/>
+    </row>
+    <row r="396">
+      <c r="J396" s="6"/>
+    </row>
+    <row r="397">
+      <c r="J397" s="6"/>
+    </row>
+    <row r="398">
+      <c r="J398" s="6"/>
+    </row>
+    <row r="399">
+      <c r="J399" s="6"/>
+    </row>
+    <row r="400">
+      <c r="J400" s="6"/>
+    </row>
+    <row r="401">
+      <c r="J401" s="6"/>
+    </row>
+    <row r="402">
+      <c r="J402" s="6"/>
+    </row>
+    <row r="403">
+      <c r="J403" s="6"/>
+    </row>
+    <row r="404">
+      <c r="J404" s="6"/>
+    </row>
+    <row r="405">
+      <c r="J405" s="6"/>
+    </row>
+    <row r="406">
+      <c r="J406" s="6"/>
+    </row>
+    <row r="407">
+      <c r="J407" s="6"/>
+    </row>
+    <row r="408">
+      <c r="J408" s="6"/>
+    </row>
+    <row r="409">
+      <c r="J409" s="6"/>
+    </row>
+    <row r="410">
+      <c r="J410" s="6"/>
+    </row>
+    <row r="411">
+      <c r="J411" s="6"/>
+    </row>
+    <row r="412">
+      <c r="J412" s="6"/>
+    </row>
+    <row r="413">
+      <c r="J413" s="6"/>
+    </row>
+    <row r="414">
+      <c r="J414" s="6"/>
+    </row>
+    <row r="415">
+      <c r="J415" s="6"/>
+    </row>
+    <row r="416">
+      <c r="J416" s="6"/>
+    </row>
+    <row r="417">
+      <c r="J417" s="6"/>
+    </row>
+    <row r="418">
+      <c r="J418" s="6"/>
+    </row>
+    <row r="419">
+      <c r="J419" s="6"/>
+    </row>
+    <row r="420">
+      <c r="J420" s="6"/>
+    </row>
+    <row r="421">
+      <c r="J421" s="6"/>
+    </row>
+    <row r="422">
+      <c r="J422" s="6"/>
+    </row>
+    <row r="423">
+      <c r="J423" s="6"/>
+    </row>
+    <row r="424">
+      <c r="J424" s="6"/>
+    </row>
+    <row r="425">
+      <c r="J425" s="6"/>
+    </row>
+    <row r="426">
+      <c r="J426" s="6"/>
+    </row>
+    <row r="427">
+      <c r="J427" s="6"/>
+    </row>
+    <row r="428">
+      <c r="J428" s="6"/>
+    </row>
+    <row r="429">
+      <c r="J429" s="6"/>
+    </row>
+    <row r="430">
+      <c r="J430" s="6"/>
+    </row>
+    <row r="431">
+      <c r="J431" s="6"/>
+    </row>
+    <row r="432">
+      <c r="J432" s="6"/>
+    </row>
+    <row r="433">
+      <c r="J433" s="6"/>
+    </row>
+    <row r="434">
+      <c r="J434" s="6"/>
+    </row>
+    <row r="435">
+      <c r="J435" s="6"/>
+    </row>
+    <row r="436">
+      <c r="J436" s="6"/>
+    </row>
+    <row r="437">
+      <c r="J437" s="6"/>
+    </row>
+    <row r="438">
+      <c r="J438" s="6"/>
+    </row>
+    <row r="439">
+      <c r="J439" s="6"/>
+    </row>
+    <row r="440">
+      <c r="J440" s="6"/>
+    </row>
+    <row r="441">
+      <c r="J441" s="6"/>
+    </row>
+    <row r="442">
+      <c r="J442" s="6"/>
+    </row>
+    <row r="443">
+      <c r="J443" s="6"/>
+    </row>
+    <row r="444">
+      <c r="J444" s="6"/>
+    </row>
+    <row r="445">
+      <c r="J445" s="6"/>
+    </row>
+    <row r="446">
+      <c r="J446" s="6"/>
+    </row>
+    <row r="447">
+      <c r="J447" s="6"/>
+    </row>
+    <row r="448">
+      <c r="J448" s="6"/>
+    </row>
+    <row r="449">
+      <c r="J449" s="6"/>
+    </row>
+    <row r="450">
+      <c r="J450" s="6"/>
+    </row>
+    <row r="451">
+      <c r="J451" s="6"/>
+    </row>
+    <row r="452">
+      <c r="J452" s="6"/>
+    </row>
+    <row r="453">
+      <c r="J453" s="6"/>
+    </row>
+    <row r="454">
+      <c r="J454" s="6"/>
+    </row>
+    <row r="455">
+      <c r="J455" s="6"/>
+    </row>
+    <row r="456">
+      <c r="J456" s="6"/>
+    </row>
+    <row r="457">
+      <c r="J457" s="6"/>
+    </row>
+    <row r="458">
+      <c r="J458" s="6"/>
+    </row>
+    <row r="459">
+      <c r="J459" s="6"/>
+    </row>
+    <row r="460">
+      <c r="J460" s="6"/>
+    </row>
+    <row r="461">
+      <c r="J461" s="6"/>
+    </row>
+    <row r="462">
+      <c r="J462" s="6"/>
+    </row>
+    <row r="463">
+      <c r="J463" s="6"/>
+    </row>
+    <row r="464">
+      <c r="J464" s="6"/>
+    </row>
+    <row r="465">
+      <c r="J465" s="6"/>
+    </row>
+    <row r="466">
+      <c r="J466" s="6"/>
+    </row>
+    <row r="467">
+      <c r="J467" s="6"/>
+    </row>
+    <row r="468">
+      <c r="J468" s="6"/>
+    </row>
+    <row r="469">
+      <c r="J469" s="6"/>
+    </row>
+    <row r="470">
+      <c r="J470" s="6"/>
+    </row>
+    <row r="471">
+      <c r="J471" s="6"/>
+    </row>
+    <row r="472">
+      <c r="J472" s="6"/>
+    </row>
+    <row r="473">
+      <c r="J473" s="6"/>
+    </row>
+    <row r="474">
+      <c r="J474" s="6"/>
+    </row>
+    <row r="475">
+      <c r="J475" s="6"/>
+    </row>
+    <row r="476">
+      <c r="J476" s="6"/>
+    </row>
+    <row r="477">
+      <c r="J477" s="6"/>
+    </row>
+    <row r="478">
+      <c r="J478" s="6"/>
+    </row>
+    <row r="479">
+      <c r="J479" s="6"/>
+    </row>
+    <row r="480">
+      <c r="J480" s="6"/>
+    </row>
+    <row r="481">
+      <c r="J481" s="6"/>
+    </row>
+    <row r="482">
+      <c r="J482" s="6"/>
+    </row>
+    <row r="483">
+      <c r="J483" s="6"/>
+    </row>
+    <row r="484">
+      <c r="J484" s="6"/>
+    </row>
+    <row r="485">
+      <c r="J485" s="6"/>
+    </row>
+    <row r="486">
+      <c r="J486" s="6"/>
+    </row>
+    <row r="487">
+      <c r="J487" s="6"/>
+    </row>
+    <row r="488">
+      <c r="J488" s="6"/>
+    </row>
+    <row r="489">
+      <c r="J489" s="6"/>
+    </row>
+    <row r="490">
+      <c r="J490" s="6"/>
+    </row>
+    <row r="491">
+      <c r="J491" s="6"/>
+    </row>
+    <row r="492">
+      <c r="J492" s="6"/>
+    </row>
+    <row r="493">
+      <c r="J493" s="6"/>
+    </row>
+    <row r="494">
+      <c r="J494" s="6"/>
+    </row>
+    <row r="495">
+      <c r="J495" s="6"/>
+    </row>
+    <row r="496">
+      <c r="J496" s="6"/>
+    </row>
+    <row r="497">
+      <c r="J497" s="6"/>
+    </row>
+    <row r="498">
+      <c r="J498" s="6"/>
+    </row>
+    <row r="499">
+      <c r="J499" s="6"/>
+    </row>
+    <row r="500">
+      <c r="J500" s="6"/>
+    </row>
+    <row r="501">
+      <c r="J501" s="6"/>
+    </row>
+    <row r="502">
+      <c r="J502" s="6"/>
+    </row>
+    <row r="503">
+      <c r="J503" s="6"/>
+    </row>
+    <row r="504">
+      <c r="J504" s="6"/>
+    </row>
+    <row r="505">
+      <c r="J505" s="6"/>
+    </row>
+    <row r="506">
+      <c r="J506" s="6"/>
+    </row>
+    <row r="507">
+      <c r="J507" s="6"/>
+    </row>
+    <row r="508">
+      <c r="J508" s="6"/>
+    </row>
+    <row r="509">
+      <c r="J509" s="6"/>
+    </row>
+    <row r="510">
+      <c r="J510" s="6"/>
+    </row>
+    <row r="511">
+      <c r="J511" s="6"/>
+    </row>
+    <row r="512">
+      <c r="J512" s="6"/>
+    </row>
+    <row r="513">
+      <c r="J513" s="6"/>
+    </row>
+    <row r="514">
+      <c r="J514" s="6"/>
+    </row>
+    <row r="515">
+      <c r="J515" s="6"/>
+    </row>
+    <row r="516">
+      <c r="J516" s="6"/>
+    </row>
+    <row r="517">
+      <c r="J517" s="6"/>
+    </row>
+    <row r="518">
+      <c r="J518" s="6"/>
+    </row>
+    <row r="519">
+      <c r="J519" s="6"/>
+    </row>
+    <row r="520">
+      <c r="J520" s="6"/>
+    </row>
+    <row r="521">
+      <c r="J521" s="6"/>
+    </row>
+    <row r="522">
+      <c r="J522" s="6"/>
+    </row>
+    <row r="523">
+      <c r="J523" s="6"/>
+    </row>
+    <row r="524">
+      <c r="J524" s="6"/>
+    </row>
+    <row r="525">
+      <c r="J525" s="6"/>
+    </row>
+    <row r="526">
+      <c r="J526" s="6"/>
+    </row>
+    <row r="527">
+      <c r="J527" s="6"/>
+    </row>
+    <row r="528">
+      <c r="J528" s="6"/>
+    </row>
+    <row r="529">
+      <c r="J529" s="6"/>
+    </row>
+    <row r="530">
+      <c r="J530" s="6"/>
+    </row>
+    <row r="531">
+      <c r="J531" s="6"/>
+    </row>
+    <row r="532">
+      <c r="J532" s="6"/>
+    </row>
+    <row r="533">
+      <c r="J533" s="6"/>
+    </row>
+    <row r="534">
+      <c r="J534" s="6"/>
+    </row>
+    <row r="535">
+      <c r="J535" s="6"/>
+    </row>
+    <row r="536">
+      <c r="J536" s="6"/>
+    </row>
+    <row r="537">
+      <c r="J537" s="6"/>
+    </row>
+    <row r="538">
+      <c r="J538" s="6"/>
+    </row>
+    <row r="539">
+      <c r="J539" s="6"/>
+    </row>
+    <row r="540">
+      <c r="J540" s="6"/>
+    </row>
+    <row r="541">
+      <c r="J541" s="6"/>
+    </row>
+    <row r="542">
+      <c r="J542" s="6"/>
+    </row>
+    <row r="543">
+      <c r="J543" s="6"/>
+    </row>
+    <row r="544">
+      <c r="J544" s="6"/>
+    </row>
+    <row r="545">
+      <c r="J545" s="6"/>
+    </row>
+    <row r="546">
+      <c r="J546" s="6"/>
+    </row>
+    <row r="547">
+      <c r="J547" s="6"/>
+    </row>
+    <row r="548">
+      <c r="J548" s="6"/>
+    </row>
+    <row r="549">
+      <c r="J549" s="6"/>
+    </row>
+    <row r="550">
+      <c r="J550" s="6"/>
+    </row>
+    <row r="551">
+      <c r="J551" s="6"/>
+    </row>
+    <row r="552">
+      <c r="J552" s="6"/>
+    </row>
+    <row r="553">
+      <c r="J553" s="6"/>
+    </row>
+    <row r="554">
+      <c r="J554" s="6"/>
+    </row>
+    <row r="555">
+      <c r="J555" s="6"/>
+    </row>
+    <row r="556">
+      <c r="J556" s="6"/>
+    </row>
+    <row r="557">
+      <c r="J557" s="6"/>
+    </row>
+    <row r="558">
+      <c r="J558" s="6"/>
+    </row>
+    <row r="559">
+      <c r="J559" s="6"/>
+    </row>
+    <row r="560">
+      <c r="J560" s="6"/>
+    </row>
+    <row r="561">
+      <c r="J561" s="6"/>
+    </row>
+    <row r="562">
+      <c r="J562" s="6"/>
+    </row>
+    <row r="563">
+      <c r="J563" s="6"/>
+    </row>
+    <row r="564">
+      <c r="J564" s="6"/>
+    </row>
+    <row r="565">
+      <c r="J565" s="6"/>
+    </row>
+    <row r="566">
+      <c r="J566" s="6"/>
+    </row>
+    <row r="567">
+      <c r="J567" s="6"/>
+    </row>
+    <row r="568">
+      <c r="J568" s="6"/>
+    </row>
+    <row r="569">
+      <c r="J569" s="6"/>
+    </row>
+    <row r="570">
+      <c r="J570" s="6"/>
+    </row>
+    <row r="571">
+      <c r="J571" s="6"/>
+    </row>
+    <row r="572">
+      <c r="J572" s="6"/>
+    </row>
+    <row r="573">
+      <c r="J573" s="6"/>
+    </row>
+    <row r="574">
+      <c r="J574" s="6"/>
+    </row>
+    <row r="575">
+      <c r="J575" s="6"/>
+    </row>
+    <row r="576">
+      <c r="J576" s="6"/>
+    </row>
+    <row r="577">
+      <c r="J577" s="6"/>
+    </row>
+    <row r="578">
+      <c r="J578" s="6"/>
+    </row>
+    <row r="579">
+      <c r="J579" s="6"/>
+    </row>
+    <row r="580">
+      <c r="J580" s="6"/>
+    </row>
+    <row r="581">
+      <c r="J581" s="6"/>
+    </row>
+    <row r="582">
+      <c r="J582" s="6"/>
+    </row>
+    <row r="583">
+      <c r="J583" s="6"/>
+    </row>
+    <row r="584">
+      <c r="J584" s="6"/>
+    </row>
+    <row r="585">
+      <c r="J585" s="6"/>
+    </row>
+    <row r="586">
+      <c r="J586" s="6"/>
+    </row>
+    <row r="587">
+      <c r="J587" s="6"/>
+    </row>
+    <row r="588">
+      <c r="J588" s="6"/>
+    </row>
+    <row r="589">
+      <c r="J589" s="6"/>
+    </row>
+    <row r="590">
+      <c r="J590" s="6"/>
+    </row>
+    <row r="591">
+      <c r="J591" s="6"/>
+    </row>
+    <row r="592">
+      <c r="J592" s="6"/>
+    </row>
+    <row r="593">
+      <c r="J593" s="6"/>
+    </row>
+    <row r="594">
+      <c r="J594" s="6"/>
+    </row>
+    <row r="595">
+      <c r="J595" s="6"/>
+    </row>
+    <row r="596">
+      <c r="J596" s="6"/>
+    </row>
+    <row r="597">
+      <c r="J597" s="6"/>
+    </row>
+    <row r="598">
+      <c r="J598" s="6"/>
+    </row>
+    <row r="599">
+      <c r="J599" s="6"/>
+    </row>
+    <row r="600">
+      <c r="J600" s="6"/>
+    </row>
+    <row r="601">
+      <c r="J601" s="6"/>
+    </row>
+    <row r="602">
+      <c r="J602" s="6"/>
+    </row>
+    <row r="603">
+      <c r="J603" s="6"/>
+    </row>
+    <row r="604">
+      <c r="J604" s="6"/>
+    </row>
+    <row r="605">
+      <c r="J605" s="6"/>
+    </row>
+    <row r="606">
+      <c r="J606" s="6"/>
+    </row>
+    <row r="607">
+      <c r="J607" s="6"/>
+    </row>
+    <row r="608">
+      <c r="J608" s="6"/>
+    </row>
+    <row r="609">
+      <c r="J609" s="6"/>
+    </row>
+    <row r="610">
+      <c r="J610" s="6"/>
+    </row>
+    <row r="611">
+      <c r="J611" s="6"/>
+    </row>
+    <row r="612">
+      <c r="J612" s="6"/>
+    </row>
+    <row r="613">
+      <c r="J613" s="6"/>
+    </row>
+    <row r="614">
+      <c r="J614" s="6"/>
+    </row>
+    <row r="615">
+      <c r="J615" s="6"/>
+    </row>
+    <row r="616">
+      <c r="J616" s="6"/>
+    </row>
+    <row r="617">
+      <c r="J617" s="6"/>
+    </row>
+    <row r="618">
+      <c r="J618" s="6"/>
+    </row>
+    <row r="619">
+      <c r="J619" s="6"/>
+    </row>
+    <row r="620">
+      <c r="J620" s="6"/>
+    </row>
+    <row r="621">
+      <c r="J621" s="6"/>
+    </row>
+    <row r="622">
+      <c r="J622" s="6"/>
+    </row>
+    <row r="623">
+      <c r="J623" s="6"/>
+    </row>
+    <row r="624">
+      <c r="J624" s="6"/>
+    </row>
+    <row r="625">
+      <c r="J625" s="6"/>
+    </row>
+    <row r="626">
+      <c r="J626" s="6"/>
+    </row>
+    <row r="627">
+      <c r="J627" s="6"/>
+    </row>
+    <row r="628">
+      <c r="J628" s="6"/>
+    </row>
+    <row r="629">
+      <c r="J629" s="6"/>
+    </row>
+    <row r="630">
+      <c r="J630" s="6"/>
+    </row>
+    <row r="631">
+      <c r="J631" s="6"/>
+    </row>
+    <row r="632">
+      <c r="J632" s="6"/>
+    </row>
+    <row r="633">
+      <c r="J633" s="6"/>
+    </row>
+    <row r="634">
+      <c r="J634" s="6"/>
+    </row>
+    <row r="635">
+      <c r="J635" s="6"/>
+    </row>
+    <row r="636">
+      <c r="J636" s="6"/>
+    </row>
+    <row r="637">
+      <c r="J637" s="6"/>
+    </row>
+    <row r="638">
+      <c r="J638" s="6"/>
+    </row>
+    <row r="639">
+      <c r="J639" s="6"/>
+    </row>
+    <row r="640">
+      <c r="J640" s="6"/>
+    </row>
+    <row r="641">
+      <c r="J641" s="6"/>
+    </row>
+    <row r="642">
+      <c r="J642" s="6"/>
+    </row>
+    <row r="643">
+      <c r="J643" s="6"/>
+    </row>
+    <row r="644">
+      <c r="J644" s="6"/>
+    </row>
+    <row r="645">
+      <c r="J645" s="6"/>
+    </row>
+    <row r="646">
+      <c r="J646" s="6"/>
+    </row>
+    <row r="647">
+      <c r="J647" s="6"/>
+    </row>
+    <row r="648">
+      <c r="J648" s="6"/>
+    </row>
+    <row r="649">
+      <c r="J649" s="6"/>
+    </row>
+    <row r="650">
+      <c r="J650" s="6"/>
+    </row>
+    <row r="651">
+      <c r="J651" s="6"/>
+    </row>
+    <row r="652">
+      <c r="J652" s="6"/>
+    </row>
+    <row r="653">
+      <c r="J653" s="6"/>
+    </row>
+    <row r="654">
+      <c r="J654" s="6"/>
+    </row>
+    <row r="655">
+      <c r="J655" s="6"/>
+    </row>
+    <row r="656">
+      <c r="J656" s="6"/>
+    </row>
+    <row r="657">
+      <c r="J657" s="6"/>
+    </row>
+    <row r="658">
+      <c r="J658" s="6"/>
+    </row>
+    <row r="659">
+      <c r="J659" s="6"/>
+    </row>
+    <row r="660">
+      <c r="J660" s="6"/>
+    </row>
+    <row r="661">
+      <c r="J661" s="6"/>
+    </row>
+    <row r="662">
+      <c r="J662" s="6"/>
+    </row>
+    <row r="663">
+      <c r="J663" s="6"/>
+    </row>
+    <row r="664">
+      <c r="J664" s="6"/>
+    </row>
+    <row r="665">
+      <c r="J665" s="6"/>
+    </row>
+    <row r="666">
+      <c r="J666" s="6"/>
+    </row>
+    <row r="667">
+      <c r="J667" s="6"/>
+    </row>
+    <row r="668">
+      <c r="J668" s="6"/>
+    </row>
+    <row r="669">
+      <c r="J669" s="6"/>
+    </row>
+    <row r="670">
+      <c r="J670" s="6"/>
+    </row>
+    <row r="671">
+      <c r="J671" s="6"/>
+    </row>
+    <row r="672">
+      <c r="J672" s="6"/>
+    </row>
+    <row r="673">
+      <c r="J673" s="6"/>
+    </row>
+    <row r="674">
+      <c r="J674" s="6"/>
+    </row>
+    <row r="675">
+      <c r="J675" s="6"/>
+    </row>
+    <row r="676">
+      <c r="J676" s="6"/>
+    </row>
+    <row r="677">
+      <c r="J677" s="6"/>
+    </row>
+    <row r="678">
+      <c r="J678" s="6"/>
+    </row>
+    <row r="679">
+      <c r="J679" s="6"/>
+    </row>
+    <row r="680">
+      <c r="J680" s="6"/>
+    </row>
+    <row r="681">
+      <c r="J681" s="6"/>
+    </row>
+    <row r="682">
+      <c r="J682" s="6"/>
+    </row>
+    <row r="683">
+      <c r="J683" s="6"/>
+    </row>
+    <row r="684">
+      <c r="J684" s="6"/>
+    </row>
+    <row r="685">
+      <c r="J685" s="6"/>
+    </row>
+    <row r="686">
+      <c r="J686" s="6"/>
+    </row>
+    <row r="687">
+      <c r="J687" s="6"/>
+    </row>
+    <row r="688">
+      <c r="J688" s="6"/>
+    </row>
+    <row r="689">
+      <c r="J689" s="6"/>
+    </row>
+    <row r="690">
+      <c r="J690" s="6"/>
+    </row>
+    <row r="691">
+      <c r="J691" s="6"/>
+    </row>
+    <row r="692">
+      <c r="J692" s="6"/>
+    </row>
+    <row r="693">
+      <c r="J693" s="6"/>
+    </row>
+    <row r="694">
+      <c r="J694" s="6"/>
+    </row>
+    <row r="695">
+      <c r="J695" s="6"/>
+    </row>
+    <row r="696">
+      <c r="J696" s="6"/>
+    </row>
+    <row r="697">
+      <c r="J697" s="6"/>
+    </row>
+    <row r="698">
+      <c r="J698" s="6"/>
+    </row>
+    <row r="699">
+      <c r="J699" s="6"/>
+    </row>
+    <row r="700">
+      <c r="J700" s="6"/>
+    </row>
+    <row r="701">
+      <c r="J701" s="6"/>
+    </row>
+    <row r="702">
+      <c r="J702" s="6"/>
+    </row>
+    <row r="703">
+      <c r="J703" s="6"/>
+    </row>
+    <row r="704">
+      <c r="J704" s="6"/>
+    </row>
+    <row r="705">
+      <c r="J705" s="6"/>
+    </row>
+    <row r="706">
+      <c r="J706" s="6"/>
+    </row>
+    <row r="707">
+      <c r="J707" s="6"/>
+    </row>
+    <row r="708">
+      <c r="J708" s="6"/>
+    </row>
+    <row r="709">
+      <c r="J709" s="6"/>
+    </row>
+    <row r="710">
+      <c r="J710" s="6"/>
+    </row>
+    <row r="711">
+      <c r="J711" s="6"/>
+    </row>
+    <row r="712">
+      <c r="J712" s="6"/>
+    </row>
+    <row r="713">
+      <c r="J713" s="6"/>
+    </row>
+    <row r="714">
+      <c r="J714" s="6"/>
+    </row>
+    <row r="715">
+      <c r="J715" s="6"/>
+    </row>
+    <row r="716">
+      <c r="J716" s="6"/>
+    </row>
+    <row r="717">
+      <c r="J717" s="6"/>
+    </row>
+    <row r="718">
+      <c r="J718" s="6"/>
+    </row>
+    <row r="719">
+      <c r="J719" s="6"/>
+    </row>
+    <row r="720">
+      <c r="J720" s="6"/>
+    </row>
+    <row r="721">
+      <c r="J721" s="6"/>
+    </row>
+    <row r="722">
+      <c r="J722" s="6"/>
+    </row>
+    <row r="723">
+      <c r="J723" s="6"/>
+    </row>
+    <row r="724">
+      <c r="J724" s="6"/>
+    </row>
+    <row r="725">
+      <c r="J725" s="6"/>
+    </row>
+    <row r="726">
+      <c r="J726" s="6"/>
+    </row>
+    <row r="727">
+      <c r="J727" s="6"/>
+    </row>
+    <row r="728">
+      <c r="J728" s="6"/>
+    </row>
+    <row r="729">
+      <c r="J729" s="6"/>
+    </row>
+    <row r="730">
+      <c r="J730" s="6"/>
+    </row>
+    <row r="731">
+      <c r="J731" s="6"/>
+    </row>
+    <row r="732">
+      <c r="J732" s="6"/>
+    </row>
+    <row r="733">
+      <c r="J733" s="6"/>
+    </row>
+    <row r="734">
+      <c r="J734" s="6"/>
+    </row>
+    <row r="735">
+      <c r="J735" s="6"/>
+    </row>
+    <row r="736">
+      <c r="J736" s="6"/>
+    </row>
+    <row r="737">
+      <c r="J737" s="6"/>
+    </row>
+    <row r="738">
+      <c r="J738" s="6"/>
+    </row>
+    <row r="739">
+      <c r="J739" s="6"/>
+    </row>
+    <row r="740">
+      <c r="J740" s="6"/>
+    </row>
+    <row r="741">
+      <c r="J741" s="6"/>
+    </row>
+    <row r="742">
+      <c r="J742" s="6"/>
+    </row>
+    <row r="743">
+      <c r="J743" s="6"/>
+    </row>
+    <row r="744">
+      <c r="J744" s="6"/>
+    </row>
+    <row r="745">
+      <c r="J745" s="6"/>
+    </row>
+    <row r="746">
+      <c r="J746" s="6"/>
+    </row>
+    <row r="747">
+      <c r="J747" s="6"/>
+    </row>
+    <row r="748">
+      <c r="J748" s="6"/>
+    </row>
+    <row r="749">
+      <c r="J749" s="6"/>
+    </row>
+    <row r="750">
+      <c r="J750" s="6"/>
+    </row>
+    <row r="751">
+      <c r="J751" s="6"/>
+    </row>
+    <row r="752">
+      <c r="J752" s="6"/>
+    </row>
+    <row r="753">
+      <c r="J753" s="6"/>
+    </row>
+    <row r="754">
+      <c r="J754" s="6"/>
+    </row>
+    <row r="755">
+      <c r="J755" s="6"/>
+    </row>
+    <row r="756">
+      <c r="J756" s="6"/>
+    </row>
+    <row r="757">
+      <c r="J757" s="6"/>
+    </row>
+    <row r="758">
+      <c r="J758" s="6"/>
+    </row>
+    <row r="759">
+      <c r="J759" s="6"/>
+    </row>
+    <row r="760">
+      <c r="J760" s="6"/>
+    </row>
+    <row r="761">
+      <c r="J761" s="6"/>
+    </row>
+    <row r="762">
+      <c r="J762" s="6"/>
+    </row>
+    <row r="763">
+      <c r="J763" s="6"/>
+    </row>
+    <row r="764">
+      <c r="J764" s="6"/>
+    </row>
+    <row r="765">
+      <c r="J765" s="6"/>
+    </row>
+    <row r="766">
+      <c r="J766" s="6"/>
+    </row>
+    <row r="767">
+      <c r="J767" s="6"/>
+    </row>
+    <row r="768">
+      <c r="J768" s="6"/>
+    </row>
+    <row r="769">
+      <c r="J769" s="6"/>
+    </row>
+    <row r="770">
+      <c r="J770" s="6"/>
+    </row>
+    <row r="771">
+      <c r="J771" s="6"/>
+    </row>
+    <row r="772">
+      <c r="J772" s="6"/>
+    </row>
+    <row r="773">
+      <c r="J773" s="6"/>
+    </row>
+    <row r="774">
+      <c r="J774" s="6"/>
+    </row>
+    <row r="775">
+      <c r="J775" s="6"/>
+    </row>
+    <row r="776">
+      <c r="J776" s="6"/>
+    </row>
+    <row r="777">
+      <c r="J777" s="6"/>
+    </row>
+    <row r="778">
+      <c r="J778" s="6"/>
+    </row>
+    <row r="779">
+      <c r="J779" s="6"/>
+    </row>
+    <row r="780">
+      <c r="J780" s="6"/>
+    </row>
+    <row r="781">
+      <c r="J781" s="6"/>
+    </row>
+    <row r="782">
+      <c r="J782" s="6"/>
+    </row>
+    <row r="783">
+      <c r="J783" s="6"/>
+    </row>
+    <row r="784">
+      <c r="J784" s="6"/>
+    </row>
+    <row r="785">
+      <c r="J785" s="6"/>
+    </row>
+    <row r="786">
+      <c r="J786" s="6"/>
+    </row>
+    <row r="787">
+      <c r="J787" s="6"/>
+    </row>
+    <row r="788">
+      <c r="J788" s="6"/>
+    </row>
+    <row r="789">
+      <c r="J789" s="6"/>
+    </row>
+    <row r="790">
+      <c r="J790" s="6"/>
+    </row>
+    <row r="791">
+      <c r="J791" s="6"/>
+    </row>
+    <row r="792">
+      <c r="J792" s="6"/>
+    </row>
+    <row r="793">
+      <c r="J793" s="6"/>
+    </row>
+    <row r="794">
+      <c r="J794" s="6"/>
+    </row>
+    <row r="795">
+      <c r="J795" s="6"/>
+    </row>
+    <row r="796">
+      <c r="J796" s="6"/>
+    </row>
+    <row r="797">
+      <c r="J797" s="6"/>
+    </row>
+    <row r="798">
+      <c r="J798" s="6"/>
+    </row>
+    <row r="799">
+      <c r="J799" s="6"/>
+    </row>
+    <row r="800">
+      <c r="J800" s="6"/>
+    </row>
+    <row r="801">
+      <c r="J801" s="6"/>
+    </row>
+    <row r="802">
+      <c r="J802" s="6"/>
+    </row>
+    <row r="803">
+      <c r="J803" s="6"/>
+    </row>
+    <row r="804">
+      <c r="J804" s="6"/>
+    </row>
+    <row r="805">
+      <c r="J805" s="6"/>
+    </row>
+    <row r="806">
+      <c r="J806" s="6"/>
+    </row>
+    <row r="807">
+      <c r="J807" s="6"/>
+    </row>
+    <row r="808">
+      <c r="J808" s="6"/>
+    </row>
+    <row r="809">
+      <c r="J809" s="6"/>
+    </row>
+    <row r="810">
+      <c r="J810" s="6"/>
+    </row>
+    <row r="811">
+      <c r="J811" s="6"/>
+    </row>
+    <row r="812">
+      <c r="J812" s="6"/>
+    </row>
+    <row r="813">
+      <c r="J813" s="6"/>
+    </row>
+    <row r="814">
+      <c r="J814" s="6"/>
+    </row>
+    <row r="815">
+      <c r="J815" s="6"/>
+    </row>
+    <row r="816">
+      <c r="J816" s="6"/>
+    </row>
+    <row r="817">
+      <c r="J817" s="6"/>
+    </row>
+    <row r="818">
+      <c r="J818" s="6"/>
+    </row>
+    <row r="819">
+      <c r="J819" s="6"/>
+    </row>
+    <row r="820">
+      <c r="J820" s="6"/>
+    </row>
+    <row r="821">
+      <c r="J821" s="6"/>
+    </row>
+    <row r="822">
+      <c r="J822" s="6"/>
+    </row>
+    <row r="823">
+      <c r="J823" s="6"/>
+    </row>
+    <row r="824">
+      <c r="J824" s="6"/>
+    </row>
+    <row r="825">
+      <c r="J825" s="6"/>
+    </row>
+    <row r="826">
+      <c r="J826" s="6"/>
+    </row>
+    <row r="827">
+      <c r="J827" s="6"/>
+    </row>
+    <row r="828">
+      <c r="J828" s="6"/>
+    </row>
+    <row r="829">
+      <c r="J829" s="6"/>
+    </row>
+    <row r="830">
+      <c r="J830" s="6"/>
+    </row>
+    <row r="831">
+      <c r="J831" s="6"/>
+    </row>
+    <row r="832">
+      <c r="J832" s="6"/>
+    </row>
+    <row r="833">
+      <c r="J833" s="6"/>
+    </row>
+    <row r="834">
+      <c r="J834" s="6"/>
+    </row>
+    <row r="835">
+      <c r="J835" s="6"/>
+    </row>
+    <row r="836">
+      <c r="J836" s="6"/>
+    </row>
+    <row r="837">
+      <c r="J837" s="6"/>
+    </row>
+    <row r="838">
+      <c r="J838" s="6"/>
+    </row>
+    <row r="839">
+      <c r="J839" s="6"/>
+    </row>
+    <row r="840">
+      <c r="J840" s="6"/>
+    </row>
+    <row r="841">
+      <c r="J841" s="6"/>
+    </row>
+    <row r="842">
+      <c r="J842" s="6"/>
+    </row>
+    <row r="843">
+      <c r="J843" s="6"/>
+    </row>
+    <row r="844">
+      <c r="J844" s="6"/>
+    </row>
+    <row r="845">
+      <c r="J845" s="6"/>
+    </row>
+    <row r="846">
+      <c r="J846" s="6"/>
+    </row>
+    <row r="847">
+      <c r="J847" s="6"/>
+    </row>
+    <row r="848">
+      <c r="J848" s="6"/>
+    </row>
+    <row r="849">
+      <c r="J849" s="6"/>
+    </row>
+    <row r="850">
+      <c r="J850" s="6"/>
+    </row>
+    <row r="851">
+      <c r="J851" s="6"/>
+    </row>
+    <row r="852">
+      <c r="J852" s="6"/>
+    </row>
+    <row r="853">
+      <c r="J853" s="6"/>
+    </row>
+    <row r="854">
+      <c r="J854" s="6"/>
+    </row>
+    <row r="855">
+      <c r="J855" s="6"/>
+    </row>
+    <row r="856">
+      <c r="J856" s="6"/>
+    </row>
+    <row r="857">
+      <c r="J857" s="6"/>
+    </row>
+    <row r="858">
+      <c r="J858" s="6"/>
+    </row>
+    <row r="859">
+      <c r="J859" s="6"/>
+    </row>
+    <row r="860">
+      <c r="J860" s="6"/>
+    </row>
+    <row r="861">
+      <c r="J861" s="6"/>
+    </row>
+    <row r="862">
+      <c r="J862" s="6"/>
+    </row>
+    <row r="863">
+      <c r="J863" s="6"/>
+    </row>
+    <row r="864">
+      <c r="J864" s="6"/>
+    </row>
+    <row r="865">
+      <c r="J865" s="6"/>
+    </row>
+    <row r="866">
+      <c r="J866" s="6"/>
+    </row>
+    <row r="867">
+      <c r="J867" s="6"/>
+    </row>
+    <row r="868">
+      <c r="J868" s="6"/>
+    </row>
+    <row r="869">
+      <c r="J869" s="6"/>
+    </row>
+    <row r="870">
+      <c r="J870" s="6"/>
+    </row>
+    <row r="871">
+      <c r="J871" s="6"/>
+    </row>
+    <row r="872">
+      <c r="J872" s="6"/>
+    </row>
+    <row r="873">
+      <c r="J873" s="6"/>
+    </row>
+    <row r="874">
+      <c r="J874" s="6"/>
+    </row>
+    <row r="875">
+      <c r="J875" s="6"/>
+    </row>
+    <row r="876">
+      <c r="J876" s="6"/>
+    </row>
+    <row r="877">
+      <c r="J877" s="6"/>
+    </row>
+    <row r="878">
+      <c r="J878" s="6"/>
+    </row>
+    <row r="879">
+      <c r="J879" s="6"/>
+    </row>
+    <row r="880">
+      <c r="J880" s="6"/>
+    </row>
+    <row r="881">
+      <c r="J881" s="6"/>
+    </row>
+    <row r="882">
+      <c r="J882" s="6"/>
+    </row>
+    <row r="883">
+      <c r="J883" s="6"/>
+    </row>
+    <row r="884">
+      <c r="J884" s="6"/>
+    </row>
+    <row r="885">
+      <c r="J885" s="6"/>
+    </row>
+    <row r="886">
+      <c r="J886" s="6"/>
+    </row>
+    <row r="887">
+      <c r="J887" s="6"/>
+    </row>
+    <row r="888">
+      <c r="J888" s="6"/>
+    </row>
+    <row r="889">
+      <c r="J889" s="6"/>
+    </row>
+    <row r="890">
+      <c r="J890" s="6"/>
+    </row>
+    <row r="891">
+      <c r="J891" s="6"/>
+    </row>
+    <row r="892">
+      <c r="J892" s="6"/>
+    </row>
+    <row r="893">
+      <c r="J893" s="6"/>
+    </row>
+    <row r="894">
+      <c r="J894" s="6"/>
+    </row>
+    <row r="895">
+      <c r="J895" s="6"/>
+    </row>
+    <row r="896">
+      <c r="J896" s="6"/>
+    </row>
+    <row r="897">
+      <c r="J897" s="6"/>
+    </row>
+    <row r="898">
+      <c r="J898" s="6"/>
+    </row>
+    <row r="899">
+      <c r="J899" s="6"/>
+    </row>
+    <row r="900">
+      <c r="J900" s="6"/>
+    </row>
+    <row r="901">
+      <c r="J901" s="6"/>
+    </row>
+    <row r="902">
+      <c r="J902" s="6"/>
+    </row>
+    <row r="903">
+      <c r="J903" s="6"/>
+    </row>
+    <row r="904">
+      <c r="J904" s="6"/>
+    </row>
+    <row r="905">
+      <c r="J905" s="6"/>
+    </row>
+    <row r="906">
+      <c r="J906" s="6"/>
+    </row>
+    <row r="907">
+      <c r="J907" s="6"/>
+    </row>
+    <row r="908">
+      <c r="J908" s="6"/>
+    </row>
+    <row r="909">
+      <c r="J909" s="6"/>
+    </row>
+    <row r="910">
+      <c r="J910" s="6"/>
+    </row>
+    <row r="911">
+      <c r="J911" s="6"/>
+    </row>
+    <row r="912">
+      <c r="J912" s="6"/>
+    </row>
+    <row r="913">
+      <c r="J913" s="6"/>
+    </row>
+    <row r="914">
+      <c r="J914" s="6"/>
+    </row>
+    <row r="915">
+      <c r="J915" s="6"/>
+    </row>
+    <row r="916">
+      <c r="J916" s="6"/>
+    </row>
+    <row r="917">
+      <c r="J917" s="6"/>
+    </row>
+    <row r="918">
+      <c r="J918" s="6"/>
+    </row>
+    <row r="919">
+      <c r="J919" s="6"/>
+    </row>
+    <row r="920">
+      <c r="J920" s="6"/>
+    </row>
+    <row r="921">
+      <c r="J921" s="6"/>
+    </row>
+    <row r="922">
+      <c r="J922" s="6"/>
+    </row>
+    <row r="923">
+      <c r="J923" s="6"/>
+    </row>
+    <row r="924">
+      <c r="J924" s="6"/>
+    </row>
+    <row r="925">
+      <c r="J925" s="6"/>
+    </row>
+    <row r="926">
+      <c r="J926" s="6"/>
+    </row>
+    <row r="927">
+      <c r="J927" s="6"/>
+    </row>
+    <row r="928">
+      <c r="J928" s="6"/>
+    </row>
+    <row r="929">
+      <c r="J929" s="6"/>
+    </row>
+    <row r="930">
+      <c r="J930" s="6"/>
+    </row>
+    <row r="931">
+      <c r="J931" s="6"/>
+    </row>
+    <row r="932">
+      <c r="J932" s="6"/>
+    </row>
+    <row r="933">
+      <c r="J933" s="6"/>
+    </row>
+    <row r="934">
+      <c r="J934" s="6"/>
+    </row>
+    <row r="935">
+      <c r="J935" s="6"/>
+    </row>
+    <row r="936">
+      <c r="J936" s="6"/>
+    </row>
+    <row r="937">
+      <c r="J937" s="6"/>
+    </row>
+    <row r="938">
+      <c r="J938" s="6"/>
+    </row>
+    <row r="939">
+      <c r="J939" s="6"/>
+    </row>
+    <row r="940">
+      <c r="J940" s="6"/>
+    </row>
+    <row r="941">
+      <c r="J941" s="6"/>
+    </row>
+    <row r="942">
+      <c r="J942" s="6"/>
+    </row>
+    <row r="943">
+      <c r="J943" s="6"/>
+    </row>
+    <row r="944">
+      <c r="J944" s="6"/>
+    </row>
+    <row r="945">
+      <c r="J945" s="6"/>
+    </row>
+    <row r="946">
+      <c r="J946" s="6"/>
+    </row>
+    <row r="947">
+      <c r="J947" s="6"/>
+    </row>
+    <row r="948">
+      <c r="J948" s="6"/>
+    </row>
+    <row r="949">
+      <c r="J949" s="6"/>
+    </row>
+    <row r="950">
+      <c r="J950" s="6"/>
+    </row>
+    <row r="951">
+      <c r="J951" s="6"/>
+    </row>
+    <row r="952">
+      <c r="J952" s="6"/>
+    </row>
+    <row r="953">
+      <c r="J953" s="6"/>
+    </row>
+    <row r="954">
+      <c r="J954" s="6"/>
+    </row>
+    <row r="955">
+      <c r="J955" s="6"/>
+    </row>
+    <row r="956">
+      <c r="J956" s="6"/>
+    </row>
+    <row r="957">
+      <c r="J957" s="6"/>
+    </row>
+    <row r="958">
+      <c r="J958" s="6"/>
+    </row>
+    <row r="959">
+      <c r="J959" s="6"/>
+    </row>
+    <row r="960">
+      <c r="J960" s="6"/>
+    </row>
+    <row r="961">
+      <c r="J961" s="6"/>
+    </row>
+    <row r="962">
+      <c r="J962" s="6"/>
+    </row>
+    <row r="963">
+      <c r="J963" s="6"/>
+    </row>
+    <row r="964">
+      <c r="J964" s="6"/>
+    </row>
+    <row r="965">
+      <c r="J965" s="6"/>
+    </row>
+    <row r="966">
+      <c r="J966" s="6"/>
+    </row>
+    <row r="967">
+      <c r="J967" s="6"/>
+    </row>
+    <row r="968">
+      <c r="J968" s="6"/>
+    </row>
+    <row r="969">
+      <c r="J969" s="6"/>
+    </row>
+    <row r="970">
+      <c r="J970" s="6"/>
+    </row>
+    <row r="971">
+      <c r="J971" s="6"/>
+    </row>
+    <row r="972">
+      <c r="J972" s="6"/>
+    </row>
+    <row r="973">
+      <c r="J973" s="6"/>
+    </row>
+    <row r="974">
+      <c r="J974" s="6"/>
+    </row>
+    <row r="975">
+      <c r="J975" s="6"/>
+    </row>
+    <row r="976">
+      <c r="J976" s="6"/>
+    </row>
+    <row r="977">
+      <c r="J977" s="6"/>
+    </row>
+    <row r="978">
+      <c r="J978" s="6"/>
+    </row>
+    <row r="979">
+      <c r="J979" s="6"/>
+    </row>
+    <row r="980">
+      <c r="J980" s="6"/>
+    </row>
+    <row r="981">
+      <c r="J981" s="6"/>
+    </row>
+    <row r="982">
+      <c r="J982" s="6"/>
+    </row>
+    <row r="983">
+      <c r="J983" s="6"/>
+    </row>
+    <row r="984">
+      <c r="J984" s="6"/>
+    </row>
+    <row r="985">
+      <c r="J985" s="6"/>
+    </row>
+    <row r="986">
+      <c r="J986" s="6"/>
+    </row>
+    <row r="987">
+      <c r="J987" s="6"/>
+    </row>
+    <row r="988">
+      <c r="J988" s="6"/>
+    </row>
+    <row r="989">
+      <c r="J989" s="6"/>
+    </row>
+    <row r="990">
+      <c r="J990" s="6"/>
+    </row>
+    <row r="991">
+      <c r="J991" s="6"/>
+    </row>
+    <row r="992">
+      <c r="J992" s="6"/>
+    </row>
+    <row r="993">
+      <c r="J993" s="6"/>
+    </row>
+    <row r="994">
+      <c r="J994" s="6"/>
+    </row>
+    <row r="995">
+      <c r="J995" s="6"/>
+    </row>
+    <row r="996">
+      <c r="J996" s="6"/>
+    </row>
+    <row r="997">
+      <c r="J997" s="6"/>
+    </row>
+    <row r="998">
+      <c r="J998" s="6"/>
+    </row>
+    <row r="999">
+      <c r="J999" s="6"/>
+    </row>
+    <row r="1000">
+      <c r="J1000" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1544,58 +4727,58 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>148</v>
+      <c r="B1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>150</v>
+      <c r="B2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>152</v>
+      <c r="B3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3.0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>154</v>
+      <c r="B4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>156</v>
+      <c r="B5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1617,104 +4800,104 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>160</v>
+      <c r="A1" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="10">
         <v>44876.0</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>44877.0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>2.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="10">
         <v>44890.0</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
         <v>44911.0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3.0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="10">
         <v>44927.0</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
         <v>44965.0</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>10.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="10">
         <v>44862.0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="10">
         <v>44869.0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>13.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5.0</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="10">
         <v>44902.0</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="10">
         <v>44916.0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>17.0</v>
       </c>
     </row>
@@ -1734,35 +4917,35 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>147</v>
+      <c r="A1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>167</v>
+      <c r="B2" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>168</v>
+      <c r="B3" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3.0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>169</v>
+      <c r="B4" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1784,715 +4967,715 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>174</v>
+      <c r="A1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>1.0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>18.0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="10">
         <v>44876.0</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="11">
         <v>44880.0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>1.0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>2.0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="10">
         <v>44881.0</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="12">
         <v>44881.0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3.0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>1.0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>4.0</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="10">
         <v>44881.0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="12">
         <v>44888.0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>1.0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>4.0</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="10">
         <v>44881.0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="11">
         <v>44888.0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5.0</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>1.0</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>2.0</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="10">
         <v>44888.0</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="12">
         <v>44895.0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>6.0</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>2.0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>20.0</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="10">
         <v>44890.0</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="10">
         <v>44895.0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7.0</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>2.0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>7.0</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="10">
         <v>44895.0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="10">
         <v>44902.0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8.0</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>2.0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>14.0</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="10">
         <v>44895.0</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="10">
         <v>44902.0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9.0</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>2.0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>12.0</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="10">
         <v>44903.0</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="10">
         <v>44905.0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10.0</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>2.0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>13.0</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="10">
         <v>44906.0</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="10">
         <v>44908.0</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>11.0</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>3.0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>18.0</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" s="13">
         <v>44927.0</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="10">
         <v>44931.0</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>12.0</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>3.0</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>7.0</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="10">
+      <c r="D13" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="13">
         <v>44932.0</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="10">
         <v>44939.0</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>13.0</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>3.0</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>18.0</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E14" s="10">
+      <c r="D14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="13">
         <v>44932.0</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="10">
         <v>44939.0</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>3.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14.0</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>3.0</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>16.0</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="D15" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="13">
         <v>44940.0</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="10">
         <v>44942.0</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15.0</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>3.0</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>9.0</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="13">
         <v>44943.0</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="10">
         <v>44958.0</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>16.0</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>3.0</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>3.0</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D17" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" s="13">
         <v>44943.0</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="10">
         <v>44958.0</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>17.0</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>3.0</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>8.0</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="10">
         <v>44959.0</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="10">
         <v>44962.0</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>18.0</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>3.0</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>13.0</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="10">
         <v>44959.0</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="10">
         <v>44962.0</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>19.0</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>4.0</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>12.0</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="D20" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="10">
         <v>44862.0</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="10">
         <v>44864.0</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>20.0</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>4.0</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>5.0</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="D21" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="10">
         <v>44865.0</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="10">
         <v>44867.0</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>21.0</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>4.0</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>18.0</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" s="10">
         <v>44867.0</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="10">
         <v>44868.0</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>22.0</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>5.0</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>9.0</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="D23" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="10">
         <v>44902.0</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="10">
         <v>44905.0</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>23.0</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>5.0</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>18.0</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="D24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="10">
         <v>44902.0</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="10">
         <v>44905.0</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>24.0</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>5.0</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>12.0</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="D25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" s="10">
         <v>44902.0</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="10">
         <v>44905.0</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="5">
         <v>3.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>25.0</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>5.0</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>16.0</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" s="7">
+      <c r="D26" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E26" s="10">
         <v>44906.0</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="10">
         <v>44910.0</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="5">
         <v>3.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>26.0</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>5.0</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="5">
         <v>14.0</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="D27" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E27" s="10">
         <v>44906.0</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="10">
         <v>44910.0</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>27.0</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>5.0</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="5">
         <v>19.0</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="D28" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E28" s="10">
         <v>44906.0</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="10">
         <v>44910.0</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>28.0</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>5.0</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="5">
         <v>17.0</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="D29" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" s="10">
         <v>44911.0</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="10">
         <v>44911.0</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="5">
         <v>3.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>29.0</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>5.0</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>16.0</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E30" s="7">
+      <c r="D30" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="10">
         <v>44911.0</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="10">
         <v>44911.0</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="5">
         <v>3.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>30.0</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>5.0</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="5">
         <v>10.0</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="7">
+      <c r="D31" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="10">
         <v>44912.0</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="10">
         <v>44913.0</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="5">
         <v>1.0</v>
       </c>
     </row>
